--- a/Crawling/crawling_data/genie/genie_20220110.xlsx
+++ b/Crawling/crawling_data/genie/genie_20220110.xlsx
@@ -19,7 +19,7 @@
     <t>순위</t>
   </si>
   <si>
-    <t>노래제목</t>
+    <t>곡</t>
   </si>
   <si>
     <t>가수</t>
